--- a/database_working_cospring.xlsx
+++ b/database_working_cospring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\colo_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5570A-3351-42F0-8759-4065CEC20BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A38BB4C-98D4-400C-8F33-B26893631E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,9 +1376,6 @@
     <t>&lt;b&gt;FOOD&lt;/b&gt;Oysters 1.75 EA&lt;br&gt;Calamari 9&lt;br&gt;The Wedge 5&lt;br&gt;Clam Chowder 6&lt;br&gt;Seafood Sampler 22&lt;br&gt;Peel N Eat Shrimp 7&lt;br&gt;Golden Whitefish Roe 16&lt;br&gt;Fruit De Mer 6&lt;br&gt;Steamed Mussels 9&lt;br&gt;Ahi Tuna Poke 14&lt;br&gt;Tostada 4&lt;br&gt;Shrimp and Grits 8&lt;br&gt;Best Rice Ever 9&lt;br&gt;Hush Puppies 6&lt;br&gt;&lt;b&gt;FROM THE BAR&lt;/b&gt;&lt;br&gt;Strawberry Lemonade 5&lt;br&gt;Cucumber Lemon Press 5&lt;br&gt;Whiskey Tea 5&lt;br&gt;On-Tap Cocktail Feature 7&lt;br&gt;Oyster Shooters 3&lt;br&gt;Well Cocktails 5&lt;br&gt;All Drafts 1 off&lt;br&gt;The POST Howdy Western Pilsner 4&lt;br&gt;Seasonal Sangria 8&lt;br&gt;Select Red, Rose, and White Wines 7&lt;br&gt;Chilled Sake 6&lt;br&gt;</t>
   </si>
   <si>
-    <t>Happy Hour Food In Bar Area Only Happy Hour 3-5pm and 8:30-10pm&lt;br&gt; Drinks Available On Patio&lt;br&gt;$5 All Draft Beers&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$5-7 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;$1.5 Oysters&lt;br&gt;$5 Bottomless Popcorn&lt;br&gt;$15 Charcuterie and Cheese Plate&lt;br&gt;$7 Duck Confit Green Chile Fries&lt;br&gt;$9 Buffalo Style Pig Ears&lt;br&gt;$6 Tomatillo Potato Enchiladas&lt;br&gt;$3 Smoked Lamb Tacos&lt;br&gt;$6Chicken Waffle Wings&lt;br&gt;$2 Tempura Jalapeno Poppers&lt;br&gt;$6 Pear and Jicama Lettuce Cups&lt;br&gt;$13 Bone Marrow Luge - Served with a Shot of Woody Creek Rye Whiskey&lt;br&gt;$8 Grilled Cheese&lt;br&gt;$9 Bacon Jam Burger&lt;br&gt;$12 Tiny Burger&lt;br&gt;$10 Rabbit Pot Pie</t>
-  </si>
-  <si>
     <t>$3 Canned beer and half price appetizers</t>
   </si>
   <si>
@@ -1389,6 +1386,9 @@
   </si>
   <si>
     <t>Small plates in their lounge and on their lush, subterranean, heated patio. $7 select appetizers and martinis. $2 off all wines by the glass, $4 wells and $4 and $5 drafts.</t>
+  </si>
+  <si>
+    <t>Happy Hour Food In Bar Area Only Happy Hour 3-5pm and 8:30-10pm&lt;br&gt; Drinks Available On Patio&lt;br&gt;$5 All Draft Beers&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$5-7 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;$10 Bacon Jam Burger&lt;br&gt;$8 Green Chili Fries&lt;br&gt;$10 Rabbit Empenada&lt;br&gt;$9 Ceviche</t>
   </si>
 </sst>
 </file>
@@ -2436,10 +2436,10 @@
   <dimension ref="B1:BL117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1"/>
@@ -3226,7 +3226,7 @@
         <v>1900</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="0"/>
@@ -8806,12 +8806,6 @@
       <c r="I35">
         <v>1700</v>
       </c>
-      <c r="J35">
-        <v>1500</v>
-      </c>
-      <c r="K35">
-        <v>1700</v>
-      </c>
       <c r="L35">
         <v>1500</v>
       </c>
@@ -8843,7 +8837,7 @@
         <v>1700</v>
       </c>
       <c r="V35" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="W35">
         <f t="shared" si="61"/>
@@ -8853,13 +8847,13 @@
         <f t="shared" si="62"/>
         <v>17</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" t="str">
         <f t="shared" si="63"/>
-        <v>15</v>
-      </c>
-      <c r="Z35">
+        <v/>
+      </c>
+      <c r="Z35" t="str">
         <f t="shared" si="64"/>
-        <v>17</v>
+        <v/>
       </c>
       <c r="AA35">
         <f t="shared" si="65"/>
@@ -8907,7 +8901,7 @@
       </c>
       <c r="AL35" t="str">
         <f t="shared" si="76"/>
-        <v>3pm-5pm</v>
+        <v/>
       </c>
       <c r="AM35" t="str">
         <f t="shared" si="77"/>
@@ -8944,7 +8938,7 @@
         <v>{
     'name': "Four by Brother Luck",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1700", 'monday-start':"1500", 'monday-end':"1700", 'tuesday-start':"1500", 'tuesday-end':"1700", 'wednesday-start':"1500", 'wednesday-end':"1700", 'thursday-start':"1500", 'thursday-end':"1700", 'friday-start':"1500", 'friday-end':"1700", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "Happy Hour Food In Bar Area Only Happy Hour 3-5pm and 8:30-10pm&lt;br&gt; Drinks Available On Patio&lt;br&gt;$5 All Draft Beers&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$5-7 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;$1.5 Oysters&lt;br&gt;$5 Bottomless Popcorn&lt;br&gt;$15 Charcuterie and Cheese Plate&lt;br&gt;$7 Duck Confit Green Chile Fries&lt;br&gt;$9 Buffalo Style Pig Ears&lt;br&gt;$6 Tomatillo Potato Enchiladas&lt;br&gt;$3 Smoked Lamb Tacos&lt;br&gt;$6Chicken Waffle Wings&lt;br&gt;$2 Tempura Jalapeno Poppers&lt;br&gt;$6 Pear and Jicama Lettuce Cups&lt;br&gt;$13 Bone Marrow Luge - Served with a Shot of Woody Creek Rye Whiskey&lt;br&gt;$8 Grilled Cheese&lt;br&gt;$9 Bacon Jam Burger&lt;br&gt;$12 Tiny Burger&lt;br&gt;$10 Rabbit Pot Pie", 'link':"", 'pricing':"",   'phone-number': "", 'address': "321 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1700", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1500", 'tuesday-end':"1700", 'wednesday-start':"1500", 'wednesday-end':"1700", 'thursday-start':"1500", 'thursday-end':"1700", 'friday-start':"1500", 'friday-end':"1700", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "Happy Hour Food In Bar Area Only Happy Hour 3-5pm and 8:30-10pm&lt;br&gt; Drinks Available On Patio&lt;br&gt;$5 All Draft Beers&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$5-7 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;$10 Bacon Jam Burger&lt;br&gt;$8 Green Chili Fries&lt;br&gt;$10 Rabbit Empenada&lt;br&gt;$9 Ceviche", 'link':"", 'pricing':"",   'phone-number': "", 'address': "321 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY35" t="str">
         <f t="shared" si="83"/>
@@ -11302,7 +11296,7 @@
         <v>1700</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="61"/>
@@ -12231,7 +12225,7 @@
         <v>1800</v>
       </c>
       <c r="V53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W53">
         <f t="shared" si="61"/>
@@ -13159,7 +13153,7 @@
         <v>1800</v>
       </c>
       <c r="V58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W58">
         <f t="shared" ref="W58" si="124">IF(H58&gt;0,H58/100,"")</f>
